--- a/Exports (p of GDP).xlsx
+++ b/Exports (p of GDP).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA7B823-7B83-4431-9133-BCC144B32958}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1801D6B5-D133-44C3-9066-C498E2966A3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Exports of goods and services (% of GDP)</t>
-  </si>
-  <si>
-    <t>2005</t>
   </si>
   <si>
     <t>Definition and explanations</t>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>GDP_2005</t>
   </si>
 </sst>
 </file>
@@ -865,7 +865,7 @@
   <dimension ref="A1:AZ276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -876,10 +876,10 @@
   <sheetData>
     <row r="1" spans="1:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -933,7 +933,7 @@
     </row>
     <row r="2" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5">
         <v>25.0679326766857</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="3" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5">
         <v>35.548142937114001</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="4" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="5">
         <v>15.128350813136899</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="5" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5">
         <v>38.3823695451104</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="6" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5">
         <v>16.8499159209304</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="7" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="5">
         <v>30.904340120551002</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="8" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="5">
         <v>50.236973686212899</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="9" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5">
         <v>25.089325679262998</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="10" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5">
         <v>30.4040198040631</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="11" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="5">
         <v>39.658652743625197</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="12" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5">
         <v>84.622868598254399</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="13" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5">
         <v>30.422232933</v>
@@ -11843,7 +11843,7 @@
     <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -11853,7 +11853,7 @@
     <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>3</v>
@@ -11865,10 +11865,10 @@
     <row r="5" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
@@ -11877,7 +11877,7 @@
     <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="7"/>
@@ -11895,7 +11895,7 @@
     <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -11905,10 +11905,10 @@
     <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="8"/>
@@ -11917,10 +11917,10 @@
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="8"/>
@@ -11929,10 +11929,10 @@
     <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="8"/>
@@ -11941,10 +11941,10 @@
     <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="8"/>
@@ -11961,7 +11961,7 @@
     <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -11971,10 +11971,10 @@
     <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="8"/>
@@ -11983,10 +11983,10 @@
     <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="8"/>
@@ -12276,7 +12276,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -12294,42 +12294,42 @@
     </row>
     <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="3"/>
@@ -12486,7 +12486,7 @@
     <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="7"/>
@@ -12504,7 +12504,7 @@
     <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="7"/>
@@ -12514,10 +12514,10 @@
     <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="8"/>
@@ -12526,10 +12526,10 @@
     <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="8"/>
@@ -12538,10 +12538,10 @@
     <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="8"/>
@@ -12685,10 +12685,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
